--- a/Player.xlsx
+++ b/Player.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -1506,6 +1506,36 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>February 21, 2024 10:33 PM</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H37" s="1" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Player.xlsx
+++ b/Player.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -1536,6 +1536,156 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>February 21, 2024 10:43 PM</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H38" s="1" t="inlineStr">
+        <is>
+          <t>00:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>February 21, 2024 10:43 PM</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H39" s="1" t="inlineStr">
+        <is>
+          <t>00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>February 21, 2024 10:45 PM</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H40" s="1" t="inlineStr">
+        <is>
+          <t>00:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>February 21, 2024 10:47 PM</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H41" s="1" t="inlineStr">
+        <is>
+          <t>00:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>February 21, 2024 10:47 PM</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H42" s="1" t="inlineStr">
+        <is>
+          <t>00:04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
